--- a/Резы/Респа для МЕ-61б на 2019 год.xlsx
+++ b/Резы/Респа для МЕ-61б на 2019 год.xlsx
@@ -615,7 +615,7 @@
     <col width="103.95" customWidth="1" min="6" max="6"/>
     <col width="23.5" customWidth="1" min="7" max="7"/>
     <col width="103.95" customWidth="1" min="8" max="8"/>
-    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
     <col width="23.5" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -1070,8 +1070,10 @@
           <t>Метрология, стандартизация и сертификация в инфокоммуникациях: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="I15" s="8" t="n">
-        <v>203</v>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>203, 316</t>
+        </is>
       </c>
       <c r="J15" s="8" t="inlineStr">
         <is>
@@ -1569,7 +1571,7 @@
       <c r="F15" s="10" t="n"/>
       <c r="G15" s="11" t="n"/>
       <c r="H15" s="8" t="n">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="I15" s="8" t="inlineStr">
         <is>
@@ -2282,7 +2284,7 @@
       <c r="G21" s="11" t="n"/>
       <c r="H21" s="16" t="n"/>
       <c r="I21" s="8" t="n">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="J21" s="8" t="inlineStr">
         <is>
@@ -2884,7 +2886,7 @@
       <c r="F20" s="10" t="n"/>
       <c r="G20" s="11" t="n"/>
       <c r="H20" s="8" t="n">
-        <v>203</v>
+        <v>316</v>
       </c>
       <c r="I20" s="8" t="inlineStr">
         <is>

--- a/Резы/Респа для МЕ-61б на 2019 год.xlsx
+++ b/Резы/Респа для МЕ-61б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,66 +114,66 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -213,7 +213,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -224,8 +224,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -596,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -696,7 +696,7 @@
       <c r="H2" s="6" t="n"/>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
       <c r="H11" s="6" t="n"/>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1081,8 +1081,56 @@
         </is>
       </c>
     </row>
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D16" s="13" t="n"/>
+      <c r="I16" s="12" t="n"/>
+      <c r="J16" s="12" t="n"/>
+    </row>
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="7" t="n"/>
+      <c r="B17" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>День самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="n"/>
+      <c r="F17" s="10" t="n"/>
+      <c r="G17" s="10" t="n"/>
+      <c r="H17" s="11" t="n"/>
+      <c r="I17" s="8" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J17" s="8" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="D4:H4"/>
@@ -1098,8 +1146,11 @@
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A4:A6"/>
@@ -1115,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1208,7 +1259,7 @@
       <c r="G2" s="6" t="n"/>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -1460,7 +1511,7 @@
       <c r="G11" s="6" t="n"/>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="I11" s="3" t="inlineStr">
@@ -1579,8 +1630,55 @@
         </is>
       </c>
     </row>
+    <row r="16" ht="34" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D16" s="13" t="n"/>
+      <c r="H16" s="12" t="n"/>
+      <c r="I16" s="12" t="n"/>
+    </row>
+    <row r="17" ht="34" customHeight="1">
+      <c r="A17" s="7" t="n"/>
+      <c r="B17" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>День самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="n"/>
+      <c r="F17" s="10" t="n"/>
+      <c r="G17" s="11" t="n"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
@@ -1596,8 +1694,11 @@
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D14:G14"/>
     <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="A4:A6"/>
@@ -1613,7 +1714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1837,7 +1938,7 @@
       <c r="H7" s="6" t="n"/>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -2292,8 +2393,56 @@
         </is>
       </c>
     </row>
+    <row r="22" ht="34" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B22" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D22" s="13" t="n"/>
+      <c r="I22" s="12" t="n"/>
+      <c r="J22" s="12" t="n"/>
+    </row>
+    <row r="23" ht="34" customHeight="1">
+      <c r="A23" s="7" t="n"/>
+      <c r="B23" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>День самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="10" t="n"/>
+      <c r="G23" s="10" t="n"/>
+      <c r="H23" s="11" t="n"/>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="33">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D3:H3"/>
@@ -2318,7 +2467,10 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
     <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A10:A12"/>
@@ -2335,7 +2487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2894,8 +3046,55 @@
         </is>
       </c>
     </row>
+    <row r="21" ht="34" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>СБ</t>
+        </is>
+      </c>
+      <c r="B21" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D21" s="13" t="n"/>
+      <c r="H21" s="12" t="n"/>
+      <c r="I21" s="12" t="n"/>
+    </row>
+    <row r="22" ht="34" customHeight="1">
+      <c r="A22" s="7" t="n"/>
+      <c r="B22" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>10:15 - 11:50</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>День самоподготовки: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E22" s="10" t="n"/>
+      <c r="F22" s="10" t="n"/>
+      <c r="G22" s="11" t="n"/>
+      <c r="H22" s="8" t="inlineStr">
+        <is>
+          <t>ХЗ</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="33">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:G3"/>
@@ -2918,7 +3117,10 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="E20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="A12:A15"/>
